--- a/data/news_and_keyword/kosdaq/국일제지.xlsx
+++ b/data/news_and_keyword/kosdaq/국일제지.xlsx
@@ -3749,12 +3749,12 @@
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>그래핀 기술 美 특허등록에 '급등'</t>
+          <t>국일그래핀 제조기술 美 특허 소식에 급등</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>['그래핀', '기술', '美', '특허등록에']</t>
+          <t>['국일그래핀', '제조기술', '美', '특허', '소식에']</t>
         </is>
       </c>
       <c r="D128" t="n">
@@ -3775,12 +3775,12 @@
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>국일그래핀 제조기술 美 특허 소식에 급등</t>
+          <t>그래핀 기술 美 특허등록에 '급등'</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>['국일그래핀', '제조기술', '美', '특허', '소식에']</t>
+          <t>['그래핀', '기술', '美', '특허등록에']</t>
         </is>
       </c>
       <c r="D129" t="n">
